--- a/mbs-perturbation/bottleneck/randomForest/nearmiss/bottleneck-randomForest-nearmiss-results.xlsx
+++ b/mbs-perturbation/bottleneck/randomForest/nearmiss/bottleneck-randomForest-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.75</v>
+        <v>0.46875</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7543859649122807</v>
+        <v>0.6245674740484429</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7878787878787877</v>
+        <v>0.4000000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9385964912280702</v>
+        <v>0.4965397923875432</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7826086956521739</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9473684210526315</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9707602339181286</v>
+        <v>0.6089965397923875</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8260869565217391</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9047619047619047</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7836257309941521</v>
+        <v>0.4117647058823529</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5925925925925926</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9290123456790124</v>
+        <v>0.472318339100346</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8228502415458937</v>
+        <v>0.2860576923076923</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8228070175438595</v>
+        <v>0.2588235294117647</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7999037999037999</v>
+        <v>0.2235016111707841</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8752761533463289</v>
+        <v>0.5228373702422144</v>
       </c>
     </row>
   </sheetData>
